--- a/data/happy-face-sad-face.xlsx
+++ b/data/happy-face-sad-face.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\OneDrive - Heriot-Watt University\semester-seven\machine-learning\F21DL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{375E422A-2F05-497E-9B75-6DFA9202CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7878A5-2139-4232-A8B8-9FCA060A42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C6D5A683-BA71-4F0B-8CA9-67B61A3EBD30}"/>
+    <workbookView xWindow="2985" yWindow="-13815" windowWidth="17280" windowHeight="9960" xr2:uid="{C6D5A683-BA71-4F0B-8CA9-67B61A3EBD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Cell 33</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Black</t>
+  </si>
+  <si>
+    <t>LaPlace</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -83,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,17 +115,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE622DC7-1526-4524-B7E1-0349DB4A068C}">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,26 +452,30 @@
     <col min="2" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -483,9 +500,15 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -512,9 +535,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="J4">
+        <f>6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K4">
+        <f>4/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -524,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -542,101 +573,184 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <f>B4/(B4+C4)</f>
+      <c r="B7" s="6">
+        <f>B4/(B5+B4)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C7" s="5">
-        <f>C4/(B4+C4)</f>
+      <c r="C7" s="6">
+        <f>C4/(C5+C4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f>D4/(D5+D4)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:I7" si="0">D4/(D4+E4)</f>
+      <c r="E7">
+        <f t="shared" ref="E7:I7" si="0">E4/(E5+E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B5/(B4+B5)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7:I7" si="1">E4/(D4+E4)</f>
+      <c r="C8">
+        <f>C5/(C4+C5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ref="D8:I8" si="1">D5/(D4+D5)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:I7" si="2">F4/(F4+G4)</f>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f>F5/(F4+F5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f>B4/(B4+B5)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G7" s="5">
-        <f>G4/(F4+G4)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:I11" si="2">C4/(C4+C5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="5">
-        <f>6/(5+2)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="I7" s="5">
-        <f>I4+1/(H4+I4+2)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E11">
+        <f>(E4+1)/(E4+E5+2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I11">
+        <f>(I4+1)/(I4+I5+2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <f>B5/(B5+C5)</f>
+      <c r="B12">
+        <f>B5/(B4+B5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:I12" si="3">C5/(C4+C5)</f>
         <v>0.5</v>
       </c>
-      <c r="C8" s="5">
-        <f>C5/(B5+C5)</f>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E12">
+        <f>(E5+1)/(E4+E5+2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="D8" s="5">
-        <f>(D5+1)/(D5+E5+2)</f>
+      <c r="H12">
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E8" s="5">
-        <f>(E5+1)/(D5+E5+2)</f>
+      <c r="I12">
+        <f>(I5+1)/(I4+I5+2)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:I8" si="3">F5/(F5+G5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:I8" si="4">G5/(F5+G5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:I8" si="5">H5/(H5+I5)</f>
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I7:I8" si="6">I5/(H5+I5)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E7 C7:C8 G7:G8" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>